--- a/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -762,27 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -800,27 +800,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 27,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 12,57</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,69%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 49,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,64; 37,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,85; 14,51</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>24,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,52</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 47,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 48,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 23,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 21,23</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,46; 91,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 102,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 30,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 27,53</t>
         </is>
       </c>
     </row>
@@ -1074,27 +1074,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1112,27 +1112,27 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -1,28</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,1%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,14; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -1,28</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,19</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,32; 3,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; 0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,25; 1,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,8; 2,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 0,35</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; 3,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,23; 0,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,57; 1,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 2,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; 0,32</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 20,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 12,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 1,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 1,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 7,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 4,48</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 26,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 15,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 1,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 1,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 4,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 23,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 11,03</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -720,34 +720,34 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 31,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 12,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>24,9</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20,81</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>8,52</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,84; 47,9</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 48,51</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-28,23; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 32,9</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 27,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,49</t>
+          <t>3,09; 23,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 12,57</t>
+          <t>1,13; 21,23</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,56%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8,46; 91,9</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 102,85</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-28,23; 0,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 49,45</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 37,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,37</t>
+          <t>3,19; 30,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 14,51</t>
+          <t>1,15; 27,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,81</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,8</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 47,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 48,51</t>
+          <t>-23,14; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 23,52</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 21,23</t>
+          <t>-11,05; -1,28</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>-4,1%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,46; 91,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 102,85</t>
+          <t>-23,14; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 30,74</t>
+          <t>-8,31; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 27,53</t>
+          <t>-11,05; -1,28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-5,19</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 0,0</t>
+          <t>-23,32; 3,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,0</t>
+          <t>-14,89; 0,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-16,25; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,8; 2,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,28</t>
+          <t>-13,8; 0,35</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,88%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-5,31%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 0,0</t>
+          <t>-25,07; 3,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,0</t>
+          <t>-15,23; 0,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-16,57; 1,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,94; 2,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,28</t>
+          <t>-14,21; 0,32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,81</t>
+          <t>3,33; 20,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 3,11</t>
+          <t>-5,58; 12,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 0,36</t>
+          <t>-4,71; 1,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 1,72</t>
+          <t>-5,33; 1,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 2,37</t>
+          <t>-0,85; 7,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,35</t>
+          <t>-3,85; 4,48</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-7,29%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,69</t>
+          <t>3,37; 26,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 3,18</t>
+          <t>-5,83; 15,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 0,18</t>
+          <t>-4,79; 1,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 1,74</t>
+          <t>-5,39; 1,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 2,48</t>
+          <t>-0,86; 7,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 0,32</t>
+          <t>-3,92; 4,78</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 20,76</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 12,84</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 1,63</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 1,18</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 7,0</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 4,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,81%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 26,18</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 15,46</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 1,67</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 1,22</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 7,63</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 4,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Habitat-trans_camb.xlsx
@@ -644,27 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 0,0</t>
+          <t>-28,51; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,33</t>
+          <t>0,0; 31,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 23,07</t>
+          <t>-7,85; 25,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,31</t>
+          <t>0,0; 18,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 11,03</t>
+          <t>-9,33; 9,24</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 0,0</t>
+          <t>-28,51; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,79</t>
+          <t>0,0; 45,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 31,28</t>
+          <t>-7,88; 35,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,96</t>
+          <t>0,0; 22,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 12,32</t>
+          <t>-9,42; 10,42</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 47,9</t>
+          <t>8,71; 48,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 48,51</t>
+          <t>2,27; 47,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 23,52</t>
+          <t>3,42; 24,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 21,23</t>
+          <t>1,82; 22,33</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 91,9</t>
+          <t>9,52; 94,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 102,85</t>
+          <t>3,86; 97,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 30,74</t>
+          <t>3,54; 31,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 27,53</t>
+          <t>1,88; 29,25</t>
         </is>
       </c>
     </row>
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 0,0</t>
+          <t>-24,43; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-12,25; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,08; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,28</t>
+          <t>-12,35; -1,28</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 0,0</t>
+          <t>-24,43; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,0</t>
+          <t>-13,56; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-12,25; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,0</t>
+          <t>-8,08; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,28</t>
+          <t>-12,35; -1,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,81</t>
+          <t>0,0; 16,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 3,11</t>
+          <t>-20,73; 4,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 0,36</t>
+          <t>-15,94; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 1,72</t>
+          <t>-16,81; 1,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 2,37</t>
+          <t>-8,96; 2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 0,35</t>
+          <t>-12,9; 0,98</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,69</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 3,18</t>
+          <t>-21,61; 3,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 0,18</t>
+          <t>-16,49; 0,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 1,74</t>
+          <t>-16,84; 1,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 2,48</t>
+          <t>-9,57; 1,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 0,32</t>
+          <t>-13,34; 0,96</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>2,77; 19,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>-5,76; 13,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>-5,09; 1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,18</t>
+          <t>-5,35; 1,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>-0,79; 7,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,48</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,18</t>
+          <t>2,85; 24,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,46</t>
+          <t>-5,87; 16,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,67</t>
+          <t>-5,11; 1,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,22</t>
+          <t>-5,42; 1,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,63</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,78</t>
+          <t>-4,32; 4,81</t>
         </is>
       </c>
     </row>
